--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inifap.gob.mx\Desktop\PROYECTO\AllDocuments\All-documents\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="166">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -526,9 +526,6 @@
     <t xml:space="preserve">Cerrar serión </t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio / Configiraciones </t>
-  </si>
-  <si>
     <t xml:space="preserve">Muestra ventana principal de configuraciones </t>
   </si>
   <si>
@@ -575,6 +572,45 @@
   </si>
   <si>
     <t xml:space="preserve">Rodolfo Zuñiga </t>
+  </si>
+  <si>
+    <t>Acceso al sitio Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio / Configuraciones </t>
+  </si>
+  <si>
+    <t>Muestra ventana para cambio de contraseña</t>
+  </si>
+  <si>
+    <t>Cierra sesion</t>
+  </si>
+  <si>
+    <t>No ejecuta informacion</t>
+  </si>
+  <si>
+    <t>No existe menu configuracion</t>
+  </si>
+  <si>
+    <t>Correcto llenado</t>
+  </si>
+  <si>
+    <t>Recauda la informacion, pero el apartado de Objetivo esta en minuscula, corregir</t>
+  </si>
+  <si>
+    <t>El apartado de frecuencia solo esta la opcion Anual, debe ser trimestral, agregar  y/o modificar</t>
+  </si>
+  <si>
+    <t>Cancela la  MIR</t>
+  </si>
+  <si>
+    <t>Guarda borrador en los listados</t>
+  </si>
+  <si>
+    <t>Muestra ventana de confirmacion de envio y mensaje de que fue enviado correctamente</t>
+  </si>
+  <si>
+    <t>Cancela cconfirmacion</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1133,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1123,7 +1158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1177,7 +1212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1241,7 +1276,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1312,7 +1347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1383,7 +1418,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1454,7 +1489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1627,7 +1662,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1683,7 +1718,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1739,7 +1774,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1785,7 +1820,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1876,7 +1911,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1906,7 +1940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1943,7 +1977,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2008,7 +2042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2034,7 +2067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2219,7 +2252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2289,7 +2322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2306,7 +2339,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2332,7 +2364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2362,7 +2394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2427,7 +2459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2453,7 +2484,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3100,7 +3131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3170,7 +3201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3187,7 +3218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3213,7 +3243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3243,7 +3273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9839,77 +9869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10029,8 +9989,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10209,9 +10169,85 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N263" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:N263"/>
+  <autoFilter ref="A6:N263">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="iclechugacapturador"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="4"/>
@@ -10480,9 +10516,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10657,7 +10693,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>51</v>
@@ -10825,13 +10864,16 @@
         <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -10852,13 +10894,16 @@
         <v>87</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -10879,13 +10924,16 @@
         <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -10911,6 +10959,9 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>82</v>
       </c>
@@ -10936,7 +10987,10 @@
         <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>22</v>
@@ -10965,6 +11019,9 @@
       <c r="G18" t="s">
         <v>31</v>
       </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
@@ -11060,7 +11117,7 @@
         <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
@@ -11122,7 +11179,10 @@
         <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>113</v>
@@ -11151,8 +11211,17 @@
       <c r="G24" t="s">
         <v>16</v>
       </c>
+      <c r="H24" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="I24" s="3" t="s">
         <v>113</v>
+      </c>
+      <c r="K24" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -11176,7 +11245,10 @@
         <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>113</v>
@@ -11203,14 +11275,17 @@
         <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -11232,8 +11307,17 @@
       <c r="G27" t="s">
         <v>16</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I27" s="3" t="s">
         <v>122</v>
+      </c>
+      <c r="K27" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -11259,6 +11343,9 @@
       <c r="G28" t="s">
         <v>31</v>
       </c>
+      <c r="H28" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="I28" s="3" t="s">
         <v>83</v>
       </c>
@@ -11284,14 +11371,17 @@
         <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="I29" t="s">
         <v>85</v>
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -11311,7 +11401,10 @@
         <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>88</v>
@@ -11338,9 +11431,11 @@
         <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31"/>
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
       <c r="I31" s="3" t="s">
         <v>114</v>
       </c>
@@ -11441,7 +11536,7 @@
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -11465,7 +11560,7 @@
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -11489,7 +11584,7 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
@@ -11513,7 +11608,7 @@
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
@@ -11537,7 +11632,7 @@
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
@@ -11561,7 +11656,7 @@
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -11585,7 +11680,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
@@ -11609,7 +11704,7 @@
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
@@ -11633,7 +11728,7 @@
       </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
@@ -11657,7 +11752,7 @@
       </c>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
@@ -11681,7 +11776,7 @@
       </c>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>39</v>
       </c>
@@ -11705,7 +11800,7 @@
       </c>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40</v>
       </c>
@@ -11729,7 +11824,7 @@
       </c>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>41</v>
       </c>
@@ -11753,7 +11848,7 @@
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
@@ -11777,7 +11872,7 @@
       </c>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>43</v>
       </c>
@@ -11801,7 +11896,7 @@
       </c>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
@@ -11825,7 +11920,7 @@
       </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
@@ -11848,7 +11943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -11871,7 +11966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>47</v>
       </c>
@@ -11895,7 +11990,7 @@
       </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>48</v>
       </c>
@@ -11919,7 +12014,7 @@
       </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
@@ -11943,7 +12038,7 @@
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
@@ -11967,7 +12062,7 @@
       </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>51</v>
       </c>
@@ -11991,7 +12086,7 @@
       </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
@@ -12015,7 +12110,7 @@
       </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
@@ -12039,7 +12134,7 @@
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -12063,7 +12158,7 @@
       </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -12087,7 +12182,7 @@
       </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
@@ -12111,7 +12206,7 @@
       </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
@@ -12135,7 +12230,7 @@
       </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
@@ -12159,7 +12254,7 @@
       </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>59</v>
       </c>
@@ -12183,7 +12278,7 @@
       </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60</v>
       </c>
@@ -12207,7 +12302,7 @@
       </c>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>61</v>
       </c>
@@ -12231,7 +12326,7 @@
       </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>62</v>
       </c>
@@ -12255,7 +12350,7 @@
       </c>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>63</v>
       </c>
@@ -12279,7 +12374,7 @@
       </c>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
@@ -12303,7 +12398,7 @@
       </c>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>65</v>
       </c>
@@ -12327,7 +12422,7 @@
       </c>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
@@ -12351,7 +12446,7 @@
       </c>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
@@ -12375,7 +12470,7 @@
       </c>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>68</v>
       </c>
@@ -12399,7 +12494,7 @@
       </c>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
@@ -12423,602 +12518,605 @@
       </c>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J163" s="6"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J183" s="6"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J184" s="6"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J185" s="6"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J186" s="6"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J187" s="6"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J188" s="7"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J189" s="7"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J190" s="7"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J191" s="7"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J192" s="7"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J193" s="7"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J194" s="7"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J195" s="7"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J196" s="7"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J197" s="7"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J222" s="7"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J223" s="7"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J224" s="7"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J225" s="7"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J226" s="7"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J227" s="7"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J228" s="7"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J229" s="7"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J230" s="7"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J231" s="7"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J232" s="7"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J233" s="7"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J234" s="7"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J235" s="6"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J236" s="7"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J237" s="7"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J238" s="7"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J239" s="7"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J240" s="7"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J241" s="7"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J242" s="7"/>
       <c r="N242" s="1"/>
     </row>
-    <row r="243" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J243" s="7"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J244" s="7"/>
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J245" s="7"/>
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J246" s="7"/>
       <c r="N246" s="1"/>
     </row>
-    <row r="247" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N258" s="1"/>
     </row>
-    <row r="259" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N259" s="1"/>
     </row>
-    <row r="260" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="N260" s="1"/>
     </row>
+    <row r="261" spans="14:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="14:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="263" spans="14:14" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="264" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N264" s="1"/>
     </row>
@@ -13312,57 +13410,57 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="166">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -241,9 +241,6 @@
     <t xml:space="preserve">Proyecto: Sistema del Presupueso Basado en Resultados </t>
   </si>
   <si>
-    <t>mir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tarea por hacer </t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>Cancela cconfirmacion</t>
+  </si>
+  <si>
+    <t>https://siednl.atlassian.net/browse/PBR-81</t>
   </si>
 </sst>
 </file>
@@ -9869,127 +9869,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10169,7 +10048,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10239,15 +10118,130 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N263" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:N263">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="iclechugacapturador"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:N263"/>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="4"/>
@@ -10516,9 +10510,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H266" sqref="H266"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10616,7 +10610,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -10678,28 +10672,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -10708,19 +10702,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -10738,16 +10732,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -10768,16 +10762,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
@@ -10798,16 +10792,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>20</v>
@@ -10828,19 +10822,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -10852,58 +10846,69 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="1">
+        <v>45090</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -10912,28 +10917,28 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -10942,49 +10947,60 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45090</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -11002,19 +11018,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -11032,28 +11048,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -11062,28 +11078,28 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="3"/>
       <c r="N20" s="1"/>
@@ -11093,37 +11109,37 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="N21" s="1">
         <v>45083</v>
@@ -11134,28 +11150,28 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="E22" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -11164,28 +11180,28 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -11194,64 +11210,69 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
         <v>86</v>
       </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="M24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" s="1">
+        <v>45090</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -11260,28 +11281,28 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -11290,64 +11311,69 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
         <v>86</v>
       </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="M27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45090</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N28" s="1"/>
     </row>
@@ -11356,28 +11382,28 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
         <v>86</v>
       </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="1"/>
     </row>
@@ -11386,28 +11412,28 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N30" s="1"/>
     </row>
@@ -11416,28 +11442,28 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" t="s">
-        <v>87</v>
-      </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31"/>
       <c r="N31" s="1"/>
@@ -11447,28 +11473,28 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
         <v>86</v>
       </c>
-      <c r="E32" t="s">
-        <v>87</v>
-      </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32"/>
       <c r="N32" s="1"/>
@@ -11478,28 +11504,28 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
         <v>86</v>
       </c>
-      <c r="E33" t="s">
-        <v>87</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -11508,1615 +11534,1609 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
         <v>86</v>
       </c>
-      <c r="E34" t="s">
-        <v>87</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M34" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
         <v>93</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>94</v>
       </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>94</v>
       </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>94</v>
       </c>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>94</v>
       </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
         <v>94</v>
       </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
         <v>94</v>
       </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
       <c r="F42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
         <v>94</v>
       </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
       <c r="F43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
         <v>94</v>
       </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
       <c r="F44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="s">
         <v>94</v>
       </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
       <c r="F45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
         <v>94</v>
       </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
         <v>94</v>
       </c>
-      <c r="E47" t="s">
-        <v>95</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
         <v>94</v>
       </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
         <v>94</v>
       </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
         <v>94</v>
       </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
         <v>94</v>
       </c>
-      <c r="E51" t="s">
-        <v>95</v>
-      </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
         <v>94</v>
       </c>
-      <c r="E52" t="s">
-        <v>95</v>
-      </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
         <v>94</v>
       </c>
-      <c r="E53" t="s">
-        <v>95</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
         <v>94</v>
       </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
         <v>103</v>
       </c>
-      <c r="E55" t="s">
-        <v>104</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
         <v>103</v>
       </c>
-      <c r="E56" t="s">
-        <v>104</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
         <v>103</v>
       </c>
-      <c r="E57" t="s">
-        <v>104</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
         <v>103</v>
       </c>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
       <c r="F58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s">
         <v>103</v>
       </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
         <v>103</v>
       </c>
-      <c r="E60" t="s">
-        <v>104</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" t="s">
         <v>103</v>
       </c>
-      <c r="E61" t="s">
-        <v>104</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s">
         <v>103</v>
       </c>
-      <c r="E62" t="s">
-        <v>104</v>
-      </c>
       <c r="F62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s">
         <v>103</v>
       </c>
-      <c r="E63" t="s">
-        <v>104</v>
-      </c>
       <c r="F63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" t="s">
         <v>103</v>
       </c>
-      <c r="E64" t="s">
-        <v>104</v>
-      </c>
       <c r="F64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" t="s">
         <v>103</v>
       </c>
-      <c r="E65" t="s">
-        <v>104</v>
-      </c>
       <c r="F65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" t="s">
         <v>103</v>
       </c>
-      <c r="E66" t="s">
-        <v>104</v>
-      </c>
       <c r="F66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
         <v>103</v>
       </c>
-      <c r="E67" t="s">
-        <v>104</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="I68" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s">
         <v>103</v>
       </c>
-      <c r="E69" t="s">
-        <v>104</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
         <v>103</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" t="s">
         <v>103</v>
       </c>
-      <c r="E71" t="s">
-        <v>104</v>
-      </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" t="s">
         <v>103</v>
       </c>
-      <c r="E72" t="s">
-        <v>104</v>
-      </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" t="s">
         <v>103</v>
       </c>
-      <c r="E73" t="s">
-        <v>104</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" t="s">
         <v>103</v>
       </c>
-      <c r="E74" t="s">
-        <v>104</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
         <v>103</v>
       </c>
-      <c r="E75" t="s">
-        <v>104</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J163" s="6"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J183" s="6"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J184" s="6"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J185" s="6"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J186" s="6"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J187" s="6"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J188" s="7"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J189" s="7"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J190" s="7"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J191" s="7"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J192" s="7"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J193" s="7"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J194" s="7"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J195" s="7"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J196" s="7"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J197" s="7"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J222" s="7"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J223" s="7"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J224" s="7"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J225" s="7"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J226" s="7"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J227" s="7"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J228" s="7"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J229" s="7"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J230" s="7"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J231" s="7"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J232" s="7"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J233" s="7"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J234" s="7"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J235" s="6"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J236" s="7"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J237" s="7"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J238" s="7"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J239" s="7"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J240" s="7"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J241" s="7"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J242" s="7"/>
       <c r="N242" s="1"/>
     </row>
-    <row r="243" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J243" s="7"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J244" s="7"/>
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J245" s="7"/>
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J246" s="7"/>
       <c r="N246" s="1"/>
     </row>
-    <row r="247" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="10:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N258" s="1"/>
     </row>
-    <row r="259" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N259" s="1"/>
     </row>
-    <row r="260" spans="14:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N260" s="1"/>
     </row>
-    <row r="261" spans="14:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="262" spans="14:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="263" spans="14:14" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="264" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N264" s="1"/>
     </row>
@@ -13377,7 +13397,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -13388,7 +13408,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -13399,7 +13419,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -13407,60 +13427,60 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
